--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_3.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_3.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71699.3825578392</v>
+        <v>-71699.38255783918</v>
       </c>
     </row>
     <row r="7">
@@ -26323,28 +26325,28 @@
         <v>7275.340913525669</v>
       </c>
       <c r="F2" t="n">
-        <v>7275.340913525671</v>
+        <v>7275.340913525669</v>
       </c>
       <c r="G2" t="n">
-        <v>7275.340913525671</v>
+        <v>7275.340913525669</v>
       </c>
       <c r="H2" t="n">
-        <v>7275.340913525669</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="I2" t="n">
         <v>7275.340913525669</v>
       </c>
       <c r="J2" t="n">
+        <v>7275.340913525669</v>
+      </c>
+      <c r="K2" t="n">
         <v>7275.34091352567</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7275.340913525671</v>
       </c>
       <c r="L2" t="n">
         <v>7275.340913525669</v>
       </c>
       <c r="M2" t="n">
-        <v>7275.340913525672</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="N2" t="n">
         <v>7275.340913525669</v>
@@ -26531,19 +26533,19 @@
         <v>2425.11363784189</v>
       </c>
       <c r="F6" t="n">
+        <v>2425.11363784189</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2425.11363784189</v>
+      </c>
+      <c r="H6" t="n">
         <v>2425.113637841891</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2425.113637841891</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2425.11363784189</v>
       </c>
       <c r="I6" t="n">
         <v>2425.11363784189</v>
       </c>
       <c r="J6" t="n">
-        <v>2425.113637841891</v>
+        <v>2425.11363784189</v>
       </c>
       <c r="K6" t="n">
         <v>2425.113637841891</v>
@@ -26552,7 +26554,7 @@
         <v>2425.11363784189</v>
       </c>
       <c r="M6" t="n">
-        <v>2425.113637841892</v>
+        <v>2425.113637841891</v>
       </c>
       <c r="N6" t="n">
         <v>2425.11363784189</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_3.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71699.38255783918</v>
+        <v>-83298.2265197098</v>
       </c>
     </row>
     <row r="7">
@@ -26331,7 +26331,7 @@
         <v>7275.340913525669</v>
       </c>
       <c r="H2" t="n">
-        <v>7275.34091352567</v>
+        <v>7275.340913525669</v>
       </c>
       <c r="I2" t="n">
         <v>7275.340913525669</v>
@@ -26340,13 +26340,13 @@
         <v>7275.340913525669</v>
       </c>
       <c r="K2" t="n">
-        <v>7275.34091352567</v>
+        <v>7275.340913525669</v>
       </c>
       <c r="L2" t="n">
         <v>7275.340913525669</v>
       </c>
       <c r="M2" t="n">
-        <v>7275.34091352567</v>
+        <v>7275.340913525669</v>
       </c>
       <c r="N2" t="n">
         <v>7275.340913525669</v>
@@ -26355,7 +26355,7 @@
         <v>7275.340913525669</v>
       </c>
       <c r="P2" t="n">
-        <v>7275.34091352567</v>
+        <v>7275.340913525669</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="C6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="D6" t="n">
-        <v>-31202.48636215811</v>
+        <v>-32588.79892869849</v>
       </c>
       <c r="E6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="F6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="G6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="H6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="I6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="J6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="K6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="L6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="M6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="N6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="O6" t="n">
-        <v>2425.11363784189</v>
+        <v>1038.801071301509</v>
       </c>
       <c r="P6" t="n">
-        <v>2425.113637841891</v>
+        <v>1038.801071301509</v>
       </c>
     </row>
   </sheetData>
